--- a/seeding/electric-guitars-seeding.xlsx
+++ b/seeding/electric-guitars-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2704F1C-764E-419F-B322-DDE11CACE5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE175896-517F-4C60-AA7D-83D6F95BEE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="967">
   <si>
     <t>Name</t>
   </si>
@@ -2853,6 +2853,87 @@
   </si>
   <si>
     <t>Line 6</t>
+  </si>
+  <si>
+    <t>Jericho Guitars</t>
+  </si>
+  <si>
+    <t>jerichoguitars.com</t>
+  </si>
+  <si>
+    <t>Dave Muselman</t>
+  </si>
+  <si>
+    <t>Leawood Kansas</t>
+  </si>
+  <si>
+    <t>http://www.steinberger.com/index.html</t>
+  </si>
+  <si>
+    <t>Bad Boy Guitars</t>
+  </si>
+  <si>
+    <t>Perry Fretz</t>
+  </si>
+  <si>
+    <t>https://www.badboyguitars.com/home.html</t>
+  </si>
+  <si>
+    <t>Halo Custom Guitars</t>
+  </si>
+  <si>
+    <t>Haze Guitars</t>
+  </si>
+  <si>
+    <t>GMW Guitarworks</t>
+  </si>
+  <si>
+    <t>http://gmwguitars.com/</t>
+  </si>
+  <si>
+    <t>https://www.haloguitars.com/store/</t>
+  </si>
+  <si>
+    <t>https://hazeguitars.com/</t>
+  </si>
+  <si>
+    <t>Steinberger Guitars</t>
+  </si>
+  <si>
+    <t>https://www.electraguitar.com/</t>
+  </si>
+  <si>
+    <t>Electra Guitar</t>
+  </si>
+  <si>
+    <t>Jarrell Guitars</t>
+  </si>
+  <si>
+    <t>http://www.jarrellguitars.com/index.html</t>
+  </si>
+  <si>
+    <t>JP Guitars</t>
+  </si>
+  <si>
+    <t>www.jpguitars.com</t>
+  </si>
+  <si>
+    <t>Palmer Guitars USA</t>
+  </si>
+  <si>
+    <t>http://www.palmerguitarsusa.com/</t>
+  </si>
+  <si>
+    <t>Peekamoose Custom Guitars</t>
+  </si>
+  <si>
+    <t>http://peekamoose.com/</t>
+  </si>
+  <si>
+    <t>Terry Rogers Guitars</t>
+  </si>
+  <si>
+    <t>http://www.terryrogersguitars.net/</t>
   </si>
 </sst>
 </file>
@@ -3278,10 +3359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03ED82-B795-4A81-A11F-8BF9198ADF76}">
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3433,7 +3514,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3441,7 +3522,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3449,7 +3530,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3457,7 +3538,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3465,7 +3546,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3473,7 +3554,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3481,7 +3562,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3489,7 +3570,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3497,7 +3578,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>465</v>
       </c>
@@ -3505,7 +3586,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3513,7 +3594,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3521,7 +3602,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3529,3584 +3610,3699 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>945</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C29" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>481</v>
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>482</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>471</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C51" t="s">
-        <v>473</v>
-      </c>
-      <c r="D51" t="s">
-        <v>474</v>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" t="s">
-        <v>501</v>
+        <v>471</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C52" t="s">
+        <v>473</v>
       </c>
       <c r="D52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>502</v>
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>501</v>
+      </c>
+      <c r="D53" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>503</v>
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>513</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>513</v>
       </c>
       <c r="B56" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>505</v>
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" t="s">
-        <v>506</v>
+        <v>51</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>511</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>511</v>
       </c>
       <c r="B65" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>529</v>
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" t="s">
-        <v>530</v>
+        <v>70</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>431</v>
+        <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>956</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>583</v>
+        <v>955</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>584</v>
+        <v>121</v>
+      </c>
+      <c r="B131" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>430</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" t="s">
-        <v>586</v>
+        <v>123</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" t="s">
-        <v>587</v>
+        <v>430</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>427</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s">
-        <v>429</v>
+        <v>124</v>
+      </c>
+      <c r="B135" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" t="s">
-        <v>589</v>
+        <v>427</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B138" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B139" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B140" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B141" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B142" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>595</v>
+        <v>131</v>
+      </c>
+      <c r="B143" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>596</v>
+        <v>132</v>
+      </c>
+      <c r="B144" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>135</v>
-      </c>
-      <c r="B145" t="s">
-        <v>597</v>
+        <v>133</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>599</v>
-      </c>
-      <c r="B146" t="s">
-        <v>598</v>
+        <v>134</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>599</v>
       </c>
       <c r="B148" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>773</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>774</v>
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>773</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>605</v>
+        <v>774</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>607</v>
-      </c>
-      <c r="B155" t="s">
-        <v>608</v>
+        <v>139</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>144</v>
+        <v>607</v>
       </c>
       <c r="B157" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B158" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B159" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B160" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B161" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B162" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B163" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B164" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B165" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>153</v>
-      </c>
-      <c r="B166" t="s">
-        <v>619</v>
+        <v>950</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B167" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B168" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>936</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>935</v>
+        <v>153</v>
+      </c>
+      <c r="B169" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B171" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" t="s">
-        <v>624</v>
+        <v>936</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B173" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B174" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B177" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B178" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B179" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>486</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>487</v>
+        <v>163</v>
+      </c>
+      <c r="B180" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>435</v>
+        <v>948</v>
       </c>
       <c r="B181" t="s">
-        <v>438</v>
-      </c>
-      <c r="C181" t="s">
-        <v>440</v>
-      </c>
-      <c r="D181" t="s">
-        <v>439</v>
-      </c>
-      <c r="E181" t="s">
-        <v>436</v>
-      </c>
-      <c r="F181" t="s">
-        <v>437</v>
-      </c>
-      <c r="G181">
-        <v>29526</v>
+        <v>952</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B182" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B183" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>168</v>
-      </c>
-      <c r="B184" t="s">
-        <v>634</v>
+        <v>486</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>169</v>
+        <v>435</v>
       </c>
       <c r="B185" t="s">
-        <v>635</v>
+        <v>438</v>
+      </c>
+      <c r="C185" t="s">
+        <v>440</v>
+      </c>
+      <c r="D185" t="s">
+        <v>439</v>
+      </c>
+      <c r="E185" t="s">
+        <v>436</v>
+      </c>
+      <c r="F185" t="s">
+        <v>437</v>
+      </c>
+      <c r="G185">
+        <v>29526</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>170</v>
+        <v>949</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>636</v>
+        <v>953</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B187" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B188" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B189" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B190" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191" t="s">
-        <v>643</v>
+        <v>170</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B192" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B193" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B194" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>647</v>
+        <v>174</v>
       </c>
       <c r="B195" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>651</v>
+        <v>176</v>
       </c>
       <c r="B197" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B198" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B199" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>647</v>
       </c>
       <c r="B200" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B201" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>651</v>
       </c>
       <c r="B202" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>886</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>885</v>
+        <v>180</v>
+      </c>
+      <c r="B203" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B204" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>932</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>931</v>
+        <v>199</v>
+      </c>
+      <c r="B205" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B206" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B207" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>886</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>932</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>957</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>183</v>
+      </c>
+      <c r="B212" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>188</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B214" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="215" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>187</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B215" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="216" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>189</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B216" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="217" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>940</v>
+      </c>
+      <c r="B217" t="s">
+        <v>941</v>
+      </c>
+      <c r="C217" t="s">
+        <v>942</v>
+      </c>
+      <c r="D217" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>190</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B218" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="219" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>191</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B219" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="220" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>193</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B220" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="221" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>192</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B221" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="222" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>194</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B222" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="223" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>196</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B223" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="224" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>195</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B224" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>197</v>
-      </c>
-      <c r="B218" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>198</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>200</v>
-      </c>
-      <c r="B220" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>201</v>
-      </c>
-      <c r="B221" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>202</v>
-      </c>
-      <c r="B222" t="s">
-        <v>678</v>
-      </c>
-      <c r="C222" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>203</v>
-      </c>
-      <c r="B223" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>676</v>
-      </c>
-      <c r="B224" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B225" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>205</v>
-      </c>
-      <c r="B226" t="s">
-        <v>682</v>
+        <v>198</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>206</v>
-      </c>
-      <c r="B227" t="s">
-        <v>683</v>
+        <v>959</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B228" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B229" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B230" t="s">
-        <v>686</v>
+        <v>678</v>
+      </c>
+      <c r="C230" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>490</v>
+        <v>203</v>
       </c>
       <c r="B231" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>676</v>
       </c>
       <c r="B232" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B233" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B234" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B235" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B236" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B237" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>217</v>
+        <v>490</v>
       </c>
       <c r="B239" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B240" t="s">
-        <v>696</v>
-      </c>
-      <c r="C240" t="s">
-        <v>938</v>
+        <v>688</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B241" t="s">
-        <v>697</v>
-      </c>
-      <c r="C241" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B242" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B243" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>939</v>
+        <v>214</v>
       </c>
       <c r="B244" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>222</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>489</v>
+        <v>215</v>
+      </c>
+      <c r="B245" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B246" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B247" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B248" t="s">
-        <v>704</v>
+        <v>696</v>
+      </c>
+      <c r="C248" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>226</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>705</v>
+        <v>219</v>
+      </c>
+      <c r="B249" t="s">
+        <v>697</v>
+      </c>
+      <c r="C249" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B250" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B251" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>229</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>708</v>
+        <v>939</v>
+      </c>
+      <c r="B252" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>230</v>
-      </c>
-      <c r="B253" t="s">
-        <v>709</v>
+        <v>222</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B254" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B255" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B256" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>640</v>
-      </c>
-      <c r="B257" t="s">
-        <v>639</v>
+        <v>226</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B258" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B259" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>236</v>
-      </c>
-      <c r="B260" t="s">
-        <v>715</v>
+        <v>229</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B261" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B262" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B263" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B264" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>241</v>
+        <v>640</v>
       </c>
       <c r="B265" t="s">
-        <v>720</v>
+        <v>639</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B266" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B267" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B268" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>426</v>
+        <v>237</v>
       </c>
       <c r="B269" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B270" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B271" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>247</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>727</v>
+        <v>240</v>
+      </c>
+      <c r="B272" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B273" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B274" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B275" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B276" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>252</v>
+        <v>426</v>
       </c>
       <c r="B277" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B278" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B279" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>255</v>
-      </c>
-      <c r="B280" t="s">
-        <v>735</v>
+        <v>247</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B281" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B282" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B283" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B284" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B285" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B286" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B287" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="B288" t="s">
-        <v>582</v>
+        <v>735</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B289" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B290" t="s">
-        <v>549</v>
+        <v>737</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B291" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B292" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>267</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>746</v>
+        <v>260</v>
+      </c>
+      <c r="B293" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B294" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>488</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>748</v>
+        <v>262</v>
+      </c>
+      <c r="B295" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="B296" t="s">
-        <v>749</v>
+        <v>582</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B297" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B298" t="s">
-        <v>751</v>
+        <v>549</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B299" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>273</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>753</v>
+        <v>266</v>
+      </c>
+      <c r="B300" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>274</v>
-      </c>
-      <c r="B301" t="s">
-        <v>754</v>
+        <v>267</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B302" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>276</v>
-      </c>
-      <c r="B303" t="s">
-        <v>756</v>
+        <v>488</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B304" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B305" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B306" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B307" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>280</v>
-      </c>
-      <c r="B308" t="s">
-        <v>760</v>
+        <v>273</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B309" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B310" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B311" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B312" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B313" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B314" t="s">
-        <v>656</v>
+        <v>759</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B315" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>289</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>768</v>
+        <v>280</v>
+      </c>
+      <c r="B316" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B317" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B318" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>293</v>
+        <v>961</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>772</v>
+        <v>962</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B321" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B322" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B323" t="s">
-        <v>777</v>
+        <v>656</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B324" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>298</v>
-      </c>
-      <c r="B325" t="s">
-        <v>779</v>
+        <v>963</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>299</v>
-      </c>
-      <c r="B326" t="s">
-        <v>780</v>
+        <v>289</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B327" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B328" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B329" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>303</v>
-      </c>
-      <c r="B330" t="s">
-        <v>784</v>
+        <v>293</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B331" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B332" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B333" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B334" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B335" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B336" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B337" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B338" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B339" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B340" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="B341" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B342" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>423</v>
+        <v>305</v>
       </c>
       <c r="B343" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="B344" t="s">
-        <v>673</v>
+        <v>787</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>422</v>
+        <v>307</v>
       </c>
       <c r="B345" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B346" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B347" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B348" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B349" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B350" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="B351" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B352" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>807</v>
+        <v>423</v>
       </c>
       <c r="B353" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>323</v>
+        <v>674</v>
       </c>
       <c r="B354" t="s">
-        <v>808</v>
+        <v>673</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>810</v>
+        <v>422</v>
       </c>
       <c r="B355" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>324</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>811</v>
+        <v>314</v>
+      </c>
+      <c r="B356" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>325</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C357" t="s">
-        <v>813</v>
+        <v>316</v>
+      </c>
+      <c r="B357" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B358" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B359" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B360" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B361" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B362" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>331</v>
+        <v>807</v>
       </c>
       <c r="B363" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B364" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>333</v>
+        <v>810</v>
       </c>
       <c r="B365" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>340</v>
-      </c>
-      <c r="B366" t="s">
-        <v>828</v>
+        <v>324</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>910</v>
-      </c>
-      <c r="B367" t="s">
-        <v>909</v>
+        <v>325</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C367" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B368" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B369" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B370" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B371" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B372" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B373" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B374" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B375" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B376" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>342</v>
+        <v>910</v>
       </c>
       <c r="B377" t="s">
-        <v>830</v>
+        <v>909</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B378" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B379" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B380" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B381" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B382" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B383" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B384" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B385" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>354</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>843</v>
+        <v>344</v>
+      </c>
+      <c r="B386" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>356</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>845</v>
+        <v>342</v>
+      </c>
+      <c r="B387" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B388" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>933</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>934</v>
+        <v>346</v>
+      </c>
+      <c r="B389" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B390" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>357</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>846</v>
+        <v>348</v>
+      </c>
+      <c r="B391" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="B392" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B393" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B394" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B395" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>360</v>
-      </c>
-      <c r="B396" t="s">
-        <v>850</v>
+        <v>354</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>362</v>
-      </c>
-      <c r="B397" t="s">
-        <v>852</v>
+        <v>356</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B398" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>364</v>
-      </c>
-      <c r="B399" t="s">
-        <v>854</v>
+        <v>933</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B400" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>366</v>
-      </c>
-      <c r="B401" t="s">
-        <v>856</v>
+        <v>954</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>367</v>
-      </c>
-      <c r="B402" t="s">
-        <v>857</v>
+        <v>357</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="B403" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="B404" t="s">
-        <v>504</v>
+        <v>848</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B405" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B406" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B407" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>863</v>
+        <v>362</v>
       </c>
       <c r="B408" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B409" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B410" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B411" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B412" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B413" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B414" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>377</v>
+        <v>50</v>
       </c>
       <c r="B415" t="s">
-        <v>869</v>
+        <v>504</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>378</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>870</v>
+        <v>369</v>
+      </c>
+      <c r="B416" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B417" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B418" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>381</v>
+        <v>863</v>
       </c>
       <c r="B419" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B420" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="B421" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>877</v>
+        <v>373</v>
       </c>
       <c r="B422" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>879</v>
+        <v>374</v>
       </c>
       <c r="B423" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B424" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B425" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B426" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>387</v>
-      </c>
-      <c r="B427" t="s">
-        <v>883</v>
+        <v>378</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>388</v>
-      </c>
-      <c r="B428" t="s">
-        <v>884</v>
+        <v>965</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B429" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B430" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B431" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B432" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="B433" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>395</v>
+        <v>877</v>
       </c>
       <c r="B434" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>396</v>
+        <v>879</v>
       </c>
       <c r="B435" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B436" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B437" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B438" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>899</v>
+        <v>387</v>
       </c>
       <c r="B439" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B440" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B441" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B442" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B443" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B444" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B445" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>906</v>
+        <v>395</v>
       </c>
       <c r="B446" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B447" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>912</v>
+        <v>397</v>
       </c>
       <c r="B448" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B449" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B450" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>409</v>
+        <v>899</v>
       </c>
       <c r="B451" t="s">
-        <v>491</v>
+        <v>898</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B452" t="s">
-        <v>492</v>
+        <v>900</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B453" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B454" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>917</v>
+        <v>403</v>
       </c>
       <c r="B455" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>920</v>
+        <v>404</v>
       </c>
       <c r="B456" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>922</v>
+        <v>405</v>
       </c>
       <c r="B457" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>413</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>923</v>
+        <v>906</v>
+      </c>
+      <c r="B458" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>414</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>924</v>
+        <v>406</v>
+      </c>
+      <c r="B459" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B460" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B461" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B462" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B463" t="s">
-        <v>929</v>
+        <v>491</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>410</v>
+      </c>
+      <c r="B464" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>411</v>
+      </c>
+      <c r="B465" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>412</v>
+      </c>
+      <c r="B466" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>917</v>
+      </c>
+      <c r="B467" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>920</v>
+      </c>
+      <c r="B468" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>922</v>
+      </c>
+      <c r="B469" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>413</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>414</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>926</v>
+      </c>
+      <c r="B472" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>415</v>
+      </c>
+      <c r="B473" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>416</v>
+      </c>
+      <c r="B474" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>417</v>
+      </c>
+      <c r="B475" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
         <v>418</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B476" t="s">
         <v>930</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G464">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G476">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B135" r:id="rId1" xr:uid="{9CEBBA2A-E8AC-454D-8FB6-170D010BDF3C}"/>
+    <hyperlink ref="B137" r:id="rId1" xr:uid="{9CEBBA2A-E8AC-454D-8FB6-170D010BDF3C}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{F76161B7-9959-4234-9AB2-3F60349772E2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{583B5066-489A-476C-B4B2-00C33B499302}"/>
     <hyperlink ref="B13" r:id="rId4" xr:uid="{55BDA1A4-930F-403B-81FA-9751631A4C47}"/>
     <hyperlink ref="B16" r:id="rId5" xr:uid="{BB0B9A87-AFB2-4D1E-B158-4C973BA2AF1F}"/>
     <hyperlink ref="B21" r:id="rId6" xr:uid="{470B3F06-3CFD-4883-9389-007A08D1D5FD}"/>
-    <hyperlink ref="B51" r:id="rId7" xr:uid="{22E6AA06-F3C1-4F49-9153-940D444EB712}"/>
-    <hyperlink ref="B38" r:id="rId8" xr:uid="{B9F5C4BD-AFC5-430B-9259-F40A0B10DCDE}"/>
-    <hyperlink ref="B180" r:id="rId9" xr:uid="{8C9C6BCD-68A7-466A-B3A1-FE779D170D6A}"/>
-    <hyperlink ref="B245" r:id="rId10" xr:uid="{3D193AA4-4531-474B-AFCE-B6046A30A530}"/>
-    <hyperlink ref="B53" r:id="rId11" xr:uid="{C6993FB6-15EF-48F3-8FBC-1447642E2671}"/>
-    <hyperlink ref="B59" r:id="rId12" xr:uid="{DB755B16-7766-4210-A10C-96195415D7EC}"/>
-    <hyperlink ref="B79" r:id="rId13" xr:uid="{625371B7-D426-4929-8E3B-CB17D46F7132}"/>
-    <hyperlink ref="B130" r:id="rId14" xr:uid="{0347F4BB-90D3-4313-A173-3E54EA0F35DF}"/>
-    <hyperlink ref="B132" r:id="rId15" xr:uid="{0F775D6A-E5D2-4EF9-9CA0-A84159D7479A}"/>
-    <hyperlink ref="B143" r:id="rId16" xr:uid="{3C961D6E-D9E7-41F7-85D1-6FA3389FFA78}"/>
-    <hyperlink ref="B144" r:id="rId17" xr:uid="{287A8E7D-AC6C-4667-9105-8E9EEFCBD394}"/>
-    <hyperlink ref="B153" r:id="rId18" xr:uid="{ED5CF982-0DC3-49BE-A452-E034B7059D1E}"/>
-    <hyperlink ref="B186" r:id="rId19" xr:uid="{75B7A9DC-0888-4A97-89C3-081BECE725EF}"/>
-    <hyperlink ref="B219" r:id="rId20" xr:uid="{83549A8B-DDDB-4EF3-AE53-CA07BE04EAF0}"/>
-    <hyperlink ref="B249" r:id="rId21" xr:uid="{664E64DE-131C-4A94-A567-2DF359F28F34}"/>
-    <hyperlink ref="B252" r:id="rId22" xr:uid="{8DB6FB3A-7375-4A00-BE84-FABCBEE796DF}"/>
-    <hyperlink ref="B272" r:id="rId23" xr:uid="{52F9C139-25DE-4D24-B674-898E635AE0E7}"/>
-    <hyperlink ref="B293" r:id="rId24" xr:uid="{D8A96E93-EF73-49E8-8EDE-99A1664BD8F1}"/>
-    <hyperlink ref="B295" r:id="rId25" xr:uid="{BD2C3175-6B9E-4520-8AFA-4DB31E68EE49}"/>
-    <hyperlink ref="B300" r:id="rId26" xr:uid="{AFA956D8-C486-467D-9B21-8B6C7A75FBB7}"/>
-    <hyperlink ref="B316" r:id="rId27" xr:uid="{2551CFFE-18B7-4462-9532-A2BE99997390}"/>
-    <hyperlink ref="B320" r:id="rId28" xr:uid="{B4077995-978E-47EB-BA75-A01A54A5CB69}"/>
-    <hyperlink ref="B151" r:id="rId29" xr:uid="{EBFEC4B1-ED43-415B-8274-465270F4E589}"/>
-    <hyperlink ref="B356" r:id="rId30" xr:uid="{6A3967E0-2ED5-49A3-BCEF-27005750AAC8}"/>
-    <hyperlink ref="B357" r:id="rId31" xr:uid="{696DB2FA-084F-459D-9456-AA73CFFC1A0A}"/>
-    <hyperlink ref="B386" r:id="rId32" xr:uid="{6FF45F13-DB2D-4BA0-B3B0-4DFF17B59EAE}"/>
-    <hyperlink ref="B387" r:id="rId33" xr:uid="{6ADF214A-EAC6-4AF5-B37E-21A752313865}"/>
-    <hyperlink ref="B416" r:id="rId34" xr:uid="{274E0FA4-4118-4B2D-889C-BF6EF37E9061}"/>
-    <hyperlink ref="B203" r:id="rId35" xr:uid="{8E657373-5350-46C2-A5AC-17B4F1D3563A}"/>
-    <hyperlink ref="B458" r:id="rId36" xr:uid="{B3F21D7A-4E60-4BA5-B8A2-A6FDBF865B5C}"/>
-    <hyperlink ref="B459" r:id="rId37" xr:uid="{90F7C28B-7049-45DE-82AB-B274E037D543}"/>
-    <hyperlink ref="B205" r:id="rId38" xr:uid="{99E8B9E4-0B15-4E09-9E5D-21FB7E0D0481}"/>
-    <hyperlink ref="B389" r:id="rId39" xr:uid="{9BB9A610-0842-42B6-A4B3-6D9FBB4D3848}"/>
-    <hyperlink ref="B169" r:id="rId40" xr:uid="{4533F418-5FF3-42D7-8BD5-94E1B114DCB9}"/>
+    <hyperlink ref="B52" r:id="rId7" xr:uid="{22E6AA06-F3C1-4F49-9153-940D444EB712}"/>
+    <hyperlink ref="B39" r:id="rId8" xr:uid="{B9F5C4BD-AFC5-430B-9259-F40A0B10DCDE}"/>
+    <hyperlink ref="B184" r:id="rId9" xr:uid="{8C9C6BCD-68A7-466A-B3A1-FE779D170D6A}"/>
+    <hyperlink ref="B253" r:id="rId10" xr:uid="{3D193AA4-4531-474B-AFCE-B6046A30A530}"/>
+    <hyperlink ref="B54" r:id="rId11" xr:uid="{C6993FB6-15EF-48F3-8FBC-1447642E2671}"/>
+    <hyperlink ref="B60" r:id="rId12" xr:uid="{DB755B16-7766-4210-A10C-96195415D7EC}"/>
+    <hyperlink ref="B80" r:id="rId13" xr:uid="{625371B7-D426-4929-8E3B-CB17D46F7132}"/>
+    <hyperlink ref="B132" r:id="rId14" xr:uid="{0347F4BB-90D3-4313-A173-3E54EA0F35DF}"/>
+    <hyperlink ref="B134" r:id="rId15" xr:uid="{0F775D6A-E5D2-4EF9-9CA0-A84159D7479A}"/>
+    <hyperlink ref="B145" r:id="rId16" xr:uid="{3C961D6E-D9E7-41F7-85D1-6FA3389FFA78}"/>
+    <hyperlink ref="B146" r:id="rId17" xr:uid="{287A8E7D-AC6C-4667-9105-8E9EEFCBD394}"/>
+    <hyperlink ref="B155" r:id="rId18" xr:uid="{ED5CF982-0DC3-49BE-A452-E034B7059D1E}"/>
+    <hyperlink ref="B191" r:id="rId19" xr:uid="{75B7A9DC-0888-4A97-89C3-081BECE725EF}"/>
+    <hyperlink ref="B226" r:id="rId20" xr:uid="{83549A8B-DDDB-4EF3-AE53-CA07BE04EAF0}"/>
+    <hyperlink ref="B257" r:id="rId21" xr:uid="{664E64DE-131C-4A94-A567-2DF359F28F34}"/>
+    <hyperlink ref="B260" r:id="rId22" xr:uid="{8DB6FB3A-7375-4A00-BE84-FABCBEE796DF}"/>
+    <hyperlink ref="B280" r:id="rId23" xr:uid="{52F9C139-25DE-4D24-B674-898E635AE0E7}"/>
+    <hyperlink ref="B301" r:id="rId24" xr:uid="{D8A96E93-EF73-49E8-8EDE-99A1664BD8F1}"/>
+    <hyperlink ref="B303" r:id="rId25" xr:uid="{BD2C3175-6B9E-4520-8AFA-4DB31E68EE49}"/>
+    <hyperlink ref="B308" r:id="rId26" xr:uid="{AFA956D8-C486-467D-9B21-8B6C7A75FBB7}"/>
+    <hyperlink ref="B326" r:id="rId27" xr:uid="{2551CFFE-18B7-4462-9532-A2BE99997390}"/>
+    <hyperlink ref="B330" r:id="rId28" xr:uid="{B4077995-978E-47EB-BA75-A01A54A5CB69}"/>
+    <hyperlink ref="B153" r:id="rId29" xr:uid="{EBFEC4B1-ED43-415B-8274-465270F4E589}"/>
+    <hyperlink ref="B366" r:id="rId30" xr:uid="{6A3967E0-2ED5-49A3-BCEF-27005750AAC8}"/>
+    <hyperlink ref="B367" r:id="rId31" xr:uid="{696DB2FA-084F-459D-9456-AA73CFFC1A0A}"/>
+    <hyperlink ref="B396" r:id="rId32" xr:uid="{6FF45F13-DB2D-4BA0-B3B0-4DFF17B59EAE}"/>
+    <hyperlink ref="B397" r:id="rId33" xr:uid="{6ADF214A-EAC6-4AF5-B37E-21A752313865}"/>
+    <hyperlink ref="B427" r:id="rId34" xr:uid="{274E0FA4-4118-4B2D-889C-BF6EF37E9061}"/>
+    <hyperlink ref="B208" r:id="rId35" xr:uid="{8E657373-5350-46C2-A5AC-17B4F1D3563A}"/>
+    <hyperlink ref="B470" r:id="rId36" xr:uid="{B3F21D7A-4E60-4BA5-B8A2-A6FDBF865B5C}"/>
+    <hyperlink ref="B471" r:id="rId37" xr:uid="{90F7C28B-7049-45DE-82AB-B274E037D543}"/>
+    <hyperlink ref="B210" r:id="rId38" xr:uid="{99E8B9E4-0B15-4E09-9E5D-21FB7E0D0481}"/>
+    <hyperlink ref="B399" r:id="rId39" xr:uid="{9BB9A610-0842-42B6-A4B3-6D9FBB4D3848}"/>
+    <hyperlink ref="B172" r:id="rId40" xr:uid="{4533F418-5FF3-42D7-8BD5-94E1B114DCB9}"/>
+    <hyperlink ref="B401" r:id="rId41" xr:uid="{6B4C9452-433B-4863-A05B-CFE98CFED175}"/>
+    <hyperlink ref="B29" r:id="rId42" xr:uid="{002C047F-724F-4F4C-A7F5-40EDDFA6CA76}"/>
+    <hyperlink ref="B166" r:id="rId43" xr:uid="{83EB2A23-D421-44E3-80CF-119EC5226F33}"/>
+    <hyperlink ref="B186" r:id="rId44" xr:uid="{E4D3083C-94C6-4389-A94D-1FE5880B0B0C}"/>
+    <hyperlink ref="B130" r:id="rId45" xr:uid="{40447685-35A8-4E59-8521-EC4DCF41AA50}"/>
+    <hyperlink ref="B211" r:id="rId46" xr:uid="{5FA1D6F6-B5FA-4B1A-B5AF-0521E4DBA64D}"/>
+    <hyperlink ref="B227" r:id="rId47" xr:uid="{2DC4FAFC-407B-441B-A069-26E459CBEDA2}"/>
+    <hyperlink ref="B320" r:id="rId48" xr:uid="{07B9AE9B-1689-4789-9A80-7C8F27E521C0}"/>
+    <hyperlink ref="B325" r:id="rId49" xr:uid="{B67D09D7-FAD3-4919-9D49-68C1423AFB24}"/>
+    <hyperlink ref="B428" r:id="rId50" xr:uid="{AECA30D4-C152-44C7-AC36-BBC5F2981087}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId51"/>
 </worksheet>
 </file>
--- a/seeding/electric-guitars-seeding.xlsx
+++ b/seeding/electric-guitars-seeding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2532D9D-C5C6-4C74-B387-746F1DE9DC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A7915E-0973-42FE-BB4C-9A77A348F467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="1626">
   <si>
     <t>Name</t>
   </si>
@@ -4875,6 +4875,42 @@
   </si>
   <si>
     <t>j-hamilton-guitars-logo.png</t>
+  </si>
+  <si>
+    <t>Schwarz Custom Guitars and Basses</t>
+  </si>
+  <si>
+    <t>https://www.schwarz-custom.de/</t>
+  </si>
+  <si>
+    <t>schwarz-guitars-logo.png</t>
+  </si>
+  <si>
+    <t>92318 Neumarkt</t>
+  </si>
+  <si>
+    <t>Gerhard Schwarz</t>
+  </si>
+  <si>
+    <t>Saitenkraft</t>
+  </si>
+  <si>
+    <t>saitenkraft-guitars-logo.png</t>
+  </si>
+  <si>
+    <t>https://www.saitenkraft.ch/kontakt</t>
+  </si>
+  <si>
+    <t>https://www.saitenkraft.ch/</t>
+  </si>
+  <si>
+    <t>Schwung Guitars</t>
+  </si>
+  <si>
+    <t>https://schwung-guitars.com/</t>
+  </si>
+  <si>
+    <t>schwung-guitars-logo.png</t>
   </si>
 </sst>
 </file>
@@ -5410,11 +5446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03ED82-B795-4A81-A11F-8BF9198ADF76}">
-  <dimension ref="A1:O492"/>
+  <dimension ref="A1:O495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F393" sqref="F393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -12169,285 +12205,295 @@
     </row>
     <row r="384" spans="1:14" ht="30" customHeight="1">
       <c r="A384" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C384" s="26" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="E384" s="12" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" ht="30" customHeight="1">
+      <c r="A385" t="s">
         <v>328</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B385" t="s">
         <v>800</v>
       </c>
-      <c r="C384" s="11" t="s">
+      <c r="C385" s="11" t="s">
         <v>1413</v>
       </c>
-      <c r="D384" s="6" t="s">
+      <c r="D385" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="E384" s="12" t="s">
+      <c r="E385" s="12" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="30" customHeight="1">
-      <c r="A385" t="s">
+    <row r="386" spans="1:10" ht="30" customHeight="1">
+      <c r="A386" t="s">
         <v>329</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>801</v>
       </c>
-      <c r="C385" s="11" t="s">
+      <c r="C386" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="D385" s="6" t="s">
+      <c r="D386" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="E385" s="12" t="s">
+      <c r="E386" s="12" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="30" customHeight="1">
-      <c r="A386" t="s">
+    <row r="387" spans="1:10" ht="30" customHeight="1">
+      <c r="A387" t="s">
         <v>330</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B387" t="s">
         <v>802</v>
       </c>
-      <c r="C386" s="11" t="s">
+      <c r="C387" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="D386" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E386" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" ht="30" customHeight="1">
-      <c r="A387" t="s">
+      <c r="D387" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E387" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" ht="30" customHeight="1">
+      <c r="A388" t="s">
         <v>331</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
         <v>803</v>
       </c>
-      <c r="C387" s="11" t="s">
+      <c r="C388" s="11" t="s">
         <v>1416</v>
       </c>
-      <c r="D387" s="6" t="s">
+      <c r="D388" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="E387" s="12" t="s">
+      <c r="E388" s="12" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="30" customHeight="1">
-      <c r="A388" t="s">
+    <row r="389" spans="1:10" ht="30" customHeight="1">
+      <c r="A389" t="s">
         <v>332</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B389" t="s">
         <v>804</v>
       </c>
-      <c r="C388" s="11" t="s">
+      <c r="C389" s="11" t="s">
         <v>1417</v>
       </c>
-      <c r="D388" s="6" t="s">
+      <c r="D389" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="E388" s="12" t="s">
+      <c r="E389" s="12" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="30" customHeight="1">
-      <c r="A389" t="s">
+    <row r="390" spans="1:10" ht="30" customHeight="1">
+      <c r="A390" t="s">
         <v>333</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>985</v>
       </c>
-      <c r="C389" s="11" t="s">
+      <c r="C390" s="11" t="s">
         <v>1418</v>
       </c>
-      <c r="D389" s="6" t="s">
+      <c r="D390" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="E389" s="12" t="s">
+      <c r="E390" s="12" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="30" customHeight="1">
-      <c r="A390" t="s">
+    <row r="391" spans="1:10" ht="30" customHeight="1">
+      <c r="A391" t="s">
         <v>340</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B391" t="s">
         <v>811</v>
       </c>
-      <c r="C390" s="11" t="s">
+      <c r="C391" s="11" t="s">
         <v>1419</v>
       </c>
-      <c r="D390" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E390" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="30" customHeight="1">
-      <c r="A391" t="s">
+      <c r="D391" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" ht="30" customHeight="1">
+      <c r="A392" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E392" s="12" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G392" s="23" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J392" s="19" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" ht="30" customHeight="1">
+      <c r="A393" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C393" s="26" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E393" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G393" s="23"/>
+    </row>
+    <row r="394" spans="1:10" ht="30" customHeight="1">
+      <c r="A394" t="s">
         <v>889</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B394" t="s">
         <v>888</v>
       </c>
-      <c r="C391" s="11" t="s">
+      <c r="C394" s="11" t="s">
         <v>1420</v>
       </c>
-      <c r="D391" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E391" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="30" customHeight="1">
-      <c r="A392" t="s">
+      <c r="D394" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" ht="30" customHeight="1">
+      <c r="A395" t="s">
         <v>334</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B395" t="s">
         <v>805</v>
       </c>
-      <c r="C392" s="11" t="s">
+      <c r="C395" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="D392" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E392" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="30" customHeight="1">
-      <c r="A393" t="s">
+      <c r="D395" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E395" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" ht="30" customHeight="1">
+      <c r="A396" t="s">
         <v>335</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B396" t="s">
         <v>806</v>
       </c>
-      <c r="C393" s="11" t="s">
+      <c r="C396" s="11" t="s">
         <v>1422</v>
       </c>
-      <c r="D393" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E393" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="30" customHeight="1">
-      <c r="A394" t="s">
+      <c r="D396" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" ht="30" customHeight="1">
+      <c r="A397" t="s">
         <v>336</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B397" t="s">
         <v>807</v>
       </c>
-      <c r="C394" s="11" t="s">
+      <c r="C397" s="11" t="s">
         <v>1423</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E394" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="30" customHeight="1">
-      <c r="A395" t="s">
+      <c r="D397" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" ht="30" customHeight="1">
+      <c r="A398" t="s">
         <v>337</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B398" t="s">
         <v>808</v>
       </c>
-      <c r="C395" s="11" t="s">
+      <c r="C398" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="D395" s="6" t="s">
+      <c r="D398" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="E395" s="12" t="s">
+      <c r="E398" s="12" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="30" customHeight="1">
-      <c r="A396" t="s">
+    <row r="399" spans="1:10" ht="30" customHeight="1">
+      <c r="A399" t="s">
         <v>338</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B399" t="s">
         <v>809</v>
       </c>
-      <c r="C396" s="11" t="s">
+      <c r="C399" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="D396" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E396" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" ht="30" customHeight="1">
-      <c r="A397" t="s">
+      <c r="D399" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E399" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" ht="30" customHeight="1">
+      <c r="A400" t="s">
         <v>339</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B400" t="s">
         <v>810</v>
       </c>
-      <c r="C397" s="11" t="s">
+      <c r="C400" s="11" t="s">
         <v>1426</v>
-      </c>
-      <c r="D397" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E397" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="30" customHeight="1">
-      <c r="A398" t="s">
-        <v>341</v>
-      </c>
-      <c r="B398" t="s">
-        <v>812</v>
-      </c>
-      <c r="C398" s="11" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E398" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="30" customHeight="1">
-      <c r="A399" t="s">
-        <v>343</v>
-      </c>
-      <c r="B399" t="s">
-        <v>814</v>
-      </c>
-      <c r="C399" s="11" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D399" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="E399" s="12" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="30" customHeight="1">
-      <c r="A400" t="s">
-        <v>344</v>
-      </c>
-      <c r="B400" t="s">
-        <v>815</v>
-      </c>
-      <c r="C400" s="11" t="s">
-        <v>1429</v>
       </c>
       <c r="D400" s="6" t="s">
         <v>439</v>
@@ -12458,13 +12504,13 @@
     </row>
     <row r="401" spans="1:5" ht="30" customHeight="1">
       <c r="A401" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B401" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>439</v>
@@ -12475,200 +12521,200 @@
     </row>
     <row r="402" spans="1:5" ht="30" customHeight="1">
       <c r="A402" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B402" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>429</v>
+        <v>971</v>
       </c>
       <c r="E402" s="12" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="30" customHeight="1">
       <c r="A403" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B403" t="s">
-        <v>986</v>
+        <v>815</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>971</v>
+        <v>439</v>
       </c>
       <c r="E403" s="12" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="30" customHeight="1">
       <c r="A404" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B404" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>959</v>
+        <v>439</v>
       </c>
       <c r="E404" s="12" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="30" customHeight="1">
       <c r="A405" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B405" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>944</v>
+        <v>429</v>
       </c>
       <c r="E405" s="12" t="s">
-        <v>1523</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="30" customHeight="1">
       <c r="A406" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B406" t="s">
-        <v>820</v>
+        <v>986</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>439</v>
+        <v>971</v>
       </c>
       <c r="E406" s="12" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="30" customHeight="1">
       <c r="A407" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B407" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="E407" s="12" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="30" customHeight="1">
       <c r="A408" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B408" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E408" s="12" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="30" customHeight="1">
       <c r="A409" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B409" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>951</v>
+        <v>439</v>
       </c>
       <c r="E409" s="12" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="30" customHeight="1">
       <c r="A410" t="s">
-        <v>354</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>825</v>
+        <v>350</v>
+      </c>
+      <c r="B410" t="s">
+        <v>821</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>439</v>
+        <v>945</v>
       </c>
       <c r="E410" s="12" t="s">
-        <v>1521</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="30" customHeight="1">
       <c r="A411" t="s">
-        <v>356</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>827</v>
+        <v>351</v>
+      </c>
+      <c r="B411" t="s">
+        <v>822</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>439</v>
+        <v>950</v>
       </c>
       <c r="E411" s="12" t="s">
-        <v>1521</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="30" customHeight="1">
       <c r="A412" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B412" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>473</v>
+        <v>951</v>
       </c>
       <c r="E412" s="12" t="s">
-        <v>1524</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="30" customHeight="1">
       <c r="A413" t="s">
-        <v>911</v>
+        <v>354</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>912</v>
+        <v>825</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>439</v>
@@ -12679,13 +12725,13 @@
     </row>
     <row r="414" spans="1:5" ht="30" customHeight="1">
       <c r="A414" t="s">
-        <v>355</v>
-      </c>
-      <c r="B414" t="s">
-        <v>826</v>
+        <v>356</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>827</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>439</v>
@@ -12696,30 +12742,30 @@
     </row>
     <row r="415" spans="1:5" ht="30" customHeight="1">
       <c r="A415" t="s">
-        <v>930</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>920</v>
+        <v>353</v>
+      </c>
+      <c r="B415" t="s">
+        <v>824</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E415" s="12" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="30" customHeight="1">
       <c r="A416" t="s">
-        <v>357</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>828</v>
+        <v>911</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>912</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>439</v>
@@ -12730,13 +12776,13 @@
     </row>
     <row r="417" spans="1:5" ht="30" customHeight="1">
       <c r="A417" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="B417" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>439</v>
@@ -12747,132 +12793,132 @@
     </row>
     <row r="418" spans="1:5" ht="30" customHeight="1">
       <c r="A418" t="s">
-        <v>358</v>
-      </c>
-      <c r="B418" t="s">
-        <v>830</v>
+        <v>930</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>920</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>952</v>
+        <v>439</v>
       </c>
       <c r="E418" s="12" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="30" customHeight="1">
       <c r="A419" t="s">
-        <v>359</v>
-      </c>
-      <c r="B419" t="s">
-        <v>831</v>
+        <v>357</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>971</v>
+        <v>439</v>
       </c>
       <c r="E419" s="12" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="30" customHeight="1">
       <c r="A420" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>971</v>
+        <v>439</v>
       </c>
       <c r="E420" s="12" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="30" customHeight="1">
       <c r="A421" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B421" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E421" s="12" t="s">
-        <v>1545</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="30" customHeight="1">
       <c r="A422" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B422" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>439</v>
+        <v>971</v>
       </c>
       <c r="E422" s="12" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="30" customHeight="1">
       <c r="A423" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B423" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>439</v>
+        <v>971</v>
       </c>
       <c r="E423" s="12" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="30" customHeight="1">
       <c r="A424" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B424" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>439</v>
+        <v>953</v>
       </c>
       <c r="E424" s="12" t="s">
-        <v>1521</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="30" customHeight="1">
       <c r="A425" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B425" t="s">
-        <v>968</v>
+        <v>834</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>439</v>
@@ -12883,13 +12929,13 @@
     </row>
     <row r="426" spans="1:5" ht="30" customHeight="1">
       <c r="A426" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B426" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>439</v>
@@ -12900,13 +12946,13 @@
     </row>
     <row r="427" spans="1:5" ht="30" customHeight="1">
       <c r="A427" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B427" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>439</v>
@@ -12917,30 +12963,30 @@
     </row>
     <row r="428" spans="1:5" ht="30" customHeight="1">
       <c r="A428" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B428" t="s">
-        <v>839</v>
+        <v>968</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D428" s="5" t="s">
-        <v>964</v>
+        <v>1454</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="E428" s="12" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="30" customHeight="1">
       <c r="A429" t="s">
-        <v>50</v>
+        <v>366</v>
       </c>
       <c r="B429" t="s">
-        <v>503</v>
+        <v>837</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>439</v>
@@ -12951,13 +12997,13 @@
     </row>
     <row r="430" spans="1:5" ht="30" customHeight="1">
       <c r="A430" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B430" t="s">
-        <v>969</v>
+        <v>838</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>439</v>
@@ -12968,30 +13014,30 @@
     </row>
     <row r="431" spans="1:5" ht="30" customHeight="1">
       <c r="A431" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B431" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D431" s="6" t="s">
-        <v>954</v>
+        <v>1457</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>964</v>
       </c>
       <c r="E431" s="12" t="s">
-        <v>1522</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="30" customHeight="1">
       <c r="A432" t="s">
-        <v>371</v>
+        <v>50</v>
       </c>
       <c r="B432" t="s">
-        <v>841</v>
+        <v>503</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>439</v>
@@ -13002,47 +13048,47 @@
     </row>
     <row r="433" spans="1:5" ht="30" customHeight="1">
       <c r="A433" t="s">
-        <v>843</v>
+        <v>369</v>
       </c>
       <c r="B433" t="s">
-        <v>842</v>
+        <v>969</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D433" s="5" t="s">
-        <v>965</v>
+        <v>1459</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="E433" s="12" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="30" customHeight="1">
       <c r="A434" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B434" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>439</v>
+        <v>954</v>
       </c>
       <c r="E434" s="12" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="30" customHeight="1">
       <c r="A435" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B435" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>1561</v>
+        <v>1461</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>439</v>
@@ -13053,118 +13099,118 @@
     </row>
     <row r="436" spans="1:5" ht="30" customHeight="1">
       <c r="A436" t="s">
-        <v>373</v>
+        <v>843</v>
       </c>
       <c r="B436" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D436" s="6" t="s">
-        <v>951</v>
+        <v>1462</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>965</v>
       </c>
       <c r="E436" s="12" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="30" customHeight="1">
       <c r="A437" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B437" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>955</v>
+        <v>439</v>
       </c>
       <c r="E437" s="12" t="s">
-        <v>1546</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="30" customHeight="1">
       <c r="A438" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B438" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>1466</v>
+        <v>1561</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>956</v>
+        <v>439</v>
       </c>
       <c r="E438" s="12" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="30" customHeight="1">
       <c r="A439" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B439" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>951</v>
       </c>
       <c r="E439" s="12" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="30" customHeight="1">
       <c r="A440" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B440" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>439</v>
+        <v>955</v>
       </c>
       <c r="E440" s="12" t="s">
-        <v>1521</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="30" customHeight="1">
       <c r="A441" t="s">
-        <v>378</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>850</v>
+        <v>375</v>
+      </c>
+      <c r="B441" t="s">
+        <v>847</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>439</v>
+        <v>956</v>
       </c>
       <c r="E441" s="12" t="s">
-        <v>1521</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="30" customHeight="1">
       <c r="A442" t="s">
-        <v>940</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>941</v>
+        <v>376</v>
+      </c>
+      <c r="B442" t="s">
+        <v>848</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>439</v>
+        <v>951</v>
       </c>
       <c r="E442" s="12" t="s">
         <v>1521</v>
@@ -13172,30 +13218,30 @@
     </row>
     <row r="443" spans="1:5" ht="30" customHeight="1">
       <c r="A443" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B443" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>951</v>
+        <v>439</v>
       </c>
       <c r="E443" s="12" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="30" customHeight="1">
       <c r="A444" t="s">
-        <v>380</v>
-      </c>
-      <c r="B444" t="s">
-        <v>852</v>
+        <v>378</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>439</v>
@@ -13206,13 +13252,13 @@
     </row>
     <row r="445" spans="1:5" ht="30" customHeight="1">
       <c r="A445" t="s">
-        <v>381</v>
-      </c>
-      <c r="B445" t="s">
-        <v>853</v>
+        <v>940</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>941</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>439</v>
@@ -13223,30 +13269,30 @@
     </row>
     <row r="446" spans="1:5" ht="30" customHeight="1">
       <c r="A446" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B446" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>439</v>
+        <v>951</v>
       </c>
       <c r="E446" s="12" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="30" customHeight="1">
       <c r="A447" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="B447" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>439</v>
@@ -13257,13 +13303,13 @@
     </row>
     <row r="448" spans="1:5" ht="30" customHeight="1">
       <c r="A448" t="s">
-        <v>857</v>
+        <v>381</v>
       </c>
       <c r="B448" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>439</v>
@@ -13274,30 +13320,30 @@
     </row>
     <row r="449" spans="1:5" ht="30" customHeight="1">
       <c r="A449" t="s">
-        <v>858</v>
+        <v>382</v>
       </c>
       <c r="B449" t="s">
-        <v>987</v>
+        <v>854</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>957</v>
+        <v>439</v>
       </c>
       <c r="E449" s="12" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="30" customHeight="1">
       <c r="A450" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="B450" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>439</v>
@@ -13308,13 +13354,13 @@
     </row>
     <row r="451" spans="1:5" ht="30" customHeight="1">
       <c r="A451" t="s">
-        <v>385</v>
+        <v>857</v>
       </c>
       <c r="B451" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>439</v>
@@ -13325,30 +13371,30 @@
     </row>
     <row r="452" spans="1:5" ht="30" customHeight="1">
       <c r="A452" t="s">
-        <v>386</v>
+        <v>858</v>
       </c>
       <c r="B452" t="s">
-        <v>861</v>
+        <v>987</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>439</v>
+        <v>957</v>
       </c>
       <c r="E452" s="12" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="30" customHeight="1">
       <c r="A453" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B453" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>439</v>
@@ -13359,13 +13405,13 @@
     </row>
     <row r="454" spans="1:5" ht="30" customHeight="1">
       <c r="A454" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B454" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>439</v>
@@ -13376,30 +13422,30 @@
     </row>
     <row r="455" spans="1:5" ht="30" customHeight="1">
       <c r="A455" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B455" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>944</v>
+        <v>439</v>
       </c>
       <c r="E455" s="12" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="30" customHeight="1">
       <c r="A456" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B456" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>439</v>
@@ -13410,13 +13456,13 @@
     </row>
     <row r="457" spans="1:5" ht="30" customHeight="1">
       <c r="A457" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B457" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>439</v>
@@ -13427,47 +13473,47 @@
     </row>
     <row r="458" spans="1:5" ht="30" customHeight="1">
       <c r="A458" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B458" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>439</v>
+        <v>944</v>
       </c>
       <c r="E458" s="12" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="30" customHeight="1">
       <c r="A459" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B459" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>1528</v>
+        <v>439</v>
       </c>
       <c r="E459" s="12" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="30" customHeight="1">
       <c r="A460" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B460" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>439</v>
@@ -13478,47 +13524,47 @@
     </row>
     <row r="461" spans="1:5" ht="30" customHeight="1">
       <c r="A461" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B461" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>963</v>
+        <v>439</v>
       </c>
       <c r="E461" s="12" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="30" customHeight="1">
       <c r="A462" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B462" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>439</v>
+        <v>1528</v>
       </c>
       <c r="E462" s="12" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="30" customHeight="1">
       <c r="A463" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B463" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>439</v>
@@ -13529,299 +13575,287 @@
     </row>
     <row r="464" spans="1:5" ht="30" customHeight="1">
       <c r="A464" t="s">
+        <v>396</v>
+      </c>
+      <c r="B464" t="s">
+        <v>873</v>
+      </c>
+      <c r="C464" s="11" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E464" s="12" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="30" customHeight="1">
+      <c r="A465" t="s">
+        <v>397</v>
+      </c>
+      <c r="B465" t="s">
+        <v>874</v>
+      </c>
+      <c r="C465" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E465" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="30" customHeight="1">
+      <c r="A466" t="s">
+        <v>398</v>
+      </c>
+      <c r="B466" t="s">
+        <v>875</v>
+      </c>
+      <c r="C466" s="11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E466" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="30" customHeight="1">
+      <c r="A467" t="s">
         <v>399</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B467" t="s">
         <v>876</v>
       </c>
-      <c r="C464" s="11" t="s">
+      <c r="C467" s="11" t="s">
         <v>1492</v>
       </c>
-      <c r="D464" s="6" t="s">
+      <c r="D467" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="E464" s="12" t="s">
+      <c r="E467" s="12" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="30" customHeight="1">
-      <c r="A465" t="s">
+    <row r="468" spans="1:5" ht="30" customHeight="1">
+      <c r="A468" t="s">
         <v>878</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B468" t="s">
         <v>877</v>
       </c>
-      <c r="C465" s="11" t="s">
+      <c r="C468" s="11" t="s">
         <v>1493</v>
       </c>
-      <c r="D465" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E465" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" ht="30" customHeight="1">
-      <c r="A466" t="s">
+      <c r="D468" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E468" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="30" customHeight="1">
+      <c r="A469" t="s">
         <v>400</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B469" t="s">
         <v>879</v>
       </c>
-      <c r="C466" s="11" t="s">
+      <c r="C469" s="11" t="s">
         <v>1494</v>
       </c>
-      <c r="D466" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E466" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10" ht="30" customHeight="1">
-      <c r="A467" t="s">
+      <c r="D469" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E469" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="30" customHeight="1">
+      <c r="A470" t="s">
         <v>401</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B470" t="s">
         <v>880</v>
       </c>
-      <c r="C467" s="11" t="s">
+      <c r="C470" s="11" t="s">
         <v>1495</v>
       </c>
-      <c r="D467" s="6" t="s">
+      <c r="D470" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="E467" s="12" t="s">
+      <c r="E470" s="12" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="30" customHeight="1">
-      <c r="A468" t="s">
+    <row r="471" spans="1:5" ht="30" customHeight="1">
+      <c r="A471" t="s">
         <v>402</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B471" t="s">
         <v>881</v>
       </c>
-      <c r="C468" s="11" t="s">
+      <c r="C471" s="11" t="s">
         <v>1496</v>
       </c>
-      <c r="D468" s="6" t="s">
+      <c r="D471" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="E468" s="12" t="s">
+      <c r="E471" s="12" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="30" customHeight="1">
-      <c r="A469" t="s">
+    <row r="472" spans="1:5" ht="30" customHeight="1">
+      <c r="A472" t="s">
         <v>403</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B472" t="s">
         <v>882</v>
       </c>
-      <c r="C469" s="11" t="s">
+      <c r="C472" s="11" t="s">
         <v>1497</v>
       </c>
-      <c r="D469" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E469" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" ht="30" customHeight="1">
-      <c r="A470" t="s">
+      <c r="D472" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E472" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="30" customHeight="1">
+      <c r="A473" t="s">
         <v>404</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B473" t="s">
         <v>883</v>
       </c>
-      <c r="C470" s="11" t="s">
+      <c r="C473" s="11" t="s">
         <v>1498</v>
       </c>
-      <c r="D470" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E470" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="471" spans="1:10" ht="30" customHeight="1">
-      <c r="A471" t="s">
+      <c r="D473" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E473" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="30" customHeight="1">
+      <c r="A474" t="s">
         <v>405</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B474" t="s">
         <v>884</v>
       </c>
-      <c r="C471" s="11" t="s">
+      <c r="C474" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="D471" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E471" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10" ht="30" customHeight="1">
-      <c r="A472" t="s">
+      <c r="D474" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E474" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="30" customHeight="1">
+      <c r="A475" t="s">
         <v>885</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B475" t="s">
         <v>886</v>
       </c>
-      <c r="C472" s="11" t="s">
+      <c r="C475" s="11" t="s">
         <v>1500</v>
       </c>
-      <c r="D472" s="6" t="s">
+      <c r="D475" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="E472" s="12" t="s">
+      <c r="E475" s="12" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="30" customHeight="1">
-      <c r="A473" t="s">
+    <row r="476" spans="1:5" ht="30" customHeight="1">
+      <c r="A476" t="s">
         <v>406</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B476" t="s">
         <v>887</v>
       </c>
-      <c r="C473" s="11" t="s">
+      <c r="C476" s="11" t="s">
         <v>1501</v>
       </c>
-      <c r="D473" s="6" t="s">
+      <c r="D476" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="E473" s="12" t="s">
+      <c r="E476" s="12" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="30" customHeight="1">
-      <c r="A474" t="s">
+    <row r="477" spans="1:5" ht="30" customHeight="1">
+      <c r="A477" t="s">
         <v>891</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B477" t="s">
         <v>890</v>
       </c>
-      <c r="C474" s="11" t="s">
+      <c r="C477" s="11" t="s">
         <v>1502</v>
       </c>
-      <c r="D474" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E474" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10" ht="30" customHeight="1">
-      <c r="A475" t="s">
+      <c r="D477" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E477" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="30" customHeight="1">
+      <c r="A478" t="s">
         <v>407</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B478" t="s">
         <v>892</v>
       </c>
-      <c r="C475" s="11" t="s">
+      <c r="C478" s="11" t="s">
         <v>1503</v>
       </c>
-      <c r="D475" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E475" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="476" spans="1:10" ht="30" customHeight="1">
-      <c r="A476" t="s">
+      <c r="D478" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E478" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="30" customHeight="1">
+      <c r="A479" t="s">
         <v>408</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B479" t="s">
         <v>893</v>
       </c>
-      <c r="C476" s="11" t="s">
+      <c r="C479" s="11" t="s">
         <v>1504</v>
       </c>
-      <c r="D476" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E476" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="477" spans="1:10" ht="30" customHeight="1">
-      <c r="A477" t="s">
+      <c r="D479" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E479" s="12" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="30" customHeight="1">
+      <c r="A480" t="s">
         <v>409</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B480" t="s">
         <v>491</v>
       </c>
-      <c r="C477" s="11" t="s">
+      <c r="C480" s="11" t="s">
         <v>1505</v>
       </c>
-      <c r="D477" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E477" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="478" spans="1:10" ht="30" customHeight="1">
-      <c r="A478" t="s">
-        <v>410</v>
-      </c>
-      <c r="B478" t="s">
-        <v>492</v>
-      </c>
-      <c r="C478" s="11" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D478" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E478" s="12" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="479" spans="1:10" ht="30" customHeight="1">
-      <c r="A479" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C479" s="26" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D479" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E479" s="12" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F479" s="28" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G479" s="19" t="s">
-        <v>1586</v>
-      </c>
-      <c r="H479" s="19" t="s">
-        <v>1587</v>
-      </c>
-      <c r="J479" s="19" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="480" spans="1:10" ht="30" customHeight="1">
-      <c r="A480" t="s">
-        <v>411</v>
-      </c>
-      <c r="B480" t="s">
-        <v>894</v>
-      </c>
-      <c r="C480" s="11" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D480" s="5" t="s">
+      <c r="D480" s="6" t="s">
         <v>439</v>
       </c>
       <c r="E480" s="12" t="s">
@@ -13830,13 +13864,13 @@
     </row>
     <row r="481" spans="1:10" ht="30" customHeight="1">
       <c r="A481" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B481" t="s">
-        <v>895</v>
+        <v>492</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>439</v>
@@ -13847,47 +13881,59 @@
     </row>
     <row r="482" spans="1:10" ht="30" customHeight="1">
       <c r="A482" t="s">
-        <v>896</v>
+        <v>1583</v>
       </c>
       <c r="B482" t="s">
-        <v>897</v>
-      </c>
-      <c r="C482" s="11" t="s">
-        <v>1509</v>
+        <v>1585</v>
+      </c>
+      <c r="C482" s="26" t="s">
+        <v>1584</v>
       </c>
       <c r="D482" s="6" t="s">
         <v>439</v>
       </c>
       <c r="E482" s="12" t="s">
         <v>1521</v>
+      </c>
+      <c r="F482" s="28" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G482" s="19" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H482" s="19" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J482" s="19" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="483" spans="1:10" ht="30" customHeight="1">
       <c r="A483" t="s">
-        <v>899</v>
+        <v>411</v>
       </c>
       <c r="B483" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D483" s="6" t="s">
-        <v>473</v>
+        <v>1507</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="E483" s="12" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="484" spans="1:10" ht="30" customHeight="1">
       <c r="A484" t="s">
-        <v>901</v>
+        <v>412</v>
       </c>
       <c r="B484" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="D484" s="6" t="s">
         <v>439</v>
@@ -13898,107 +13944,107 @@
     </row>
     <row r="485" spans="1:10" ht="30" customHeight="1">
       <c r="A485" t="s">
-        <v>1027</v>
+        <v>896</v>
       </c>
       <c r="B485" t="s">
-        <v>1028</v>
+        <v>897</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="D485" s="6" t="s">
         <v>439</v>
       </c>
       <c r="E485" s="12" t="s">
         <v>1521</v>
-      </c>
-      <c r="G485" s="19" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H485" s="19" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J485" s="23" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="486" spans="1:10" ht="30" customHeight="1">
       <c r="A486" t="s">
-        <v>413</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
+      </c>
+      <c r="B486" t="s">
+        <v>898</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E486" s="12" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="487" spans="1:10" ht="30" customHeight="1">
       <c r="A487" t="s">
-        <v>414</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>970</v>
+        <v>901</v>
+      </c>
+      <c r="B487" t="s">
+        <v>900</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>957</v>
+        <v>439</v>
       </c>
       <c r="E487" s="12" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="488" spans="1:10" ht="30" customHeight="1">
       <c r="A488" t="s">
-        <v>904</v>
+        <v>1027</v>
       </c>
       <c r="B488" t="s">
-        <v>903</v>
+        <v>1028</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>944</v>
+        <v>439</v>
       </c>
       <c r="E488" s="12" t="s">
-        <v>1523</v>
+        <v>1521</v>
+      </c>
+      <c r="G488" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H488" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J488" s="23" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="489" spans="1:10" ht="30" customHeight="1">
       <c r="A489" t="s">
-        <v>415</v>
-      </c>
-      <c r="B489" t="s">
-        <v>905</v>
+        <v>413</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>902</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>951</v>
+        <v>439</v>
       </c>
       <c r="E489" s="12" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="490" spans="1:10" ht="30" customHeight="1">
       <c r="A490" t="s">
-        <v>416</v>
-      </c>
-      <c r="B490" t="s">
-        <v>906</v>
+        <v>414</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>970</v>
       </c>
       <c r="C490" s="11" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="D490" s="6" t="s">
         <v>957</v>
@@ -14009,40 +14055,91 @@
     </row>
     <row r="491" spans="1:10" ht="30" customHeight="1">
       <c r="A491" t="s">
-        <v>417</v>
+        <v>904</v>
       </c>
       <c r="B491" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C491" s="11" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E491" s="12" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="492" spans="1:10" ht="30" customHeight="1">
       <c r="A492" t="s">
+        <v>415</v>
+      </c>
+      <c r="B492" t="s">
+        <v>905</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D492" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E492" s="12" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" ht="30" customHeight="1">
+      <c r="A493" t="s">
+        <v>416</v>
+      </c>
+      <c r="B493" t="s">
+        <v>906</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D493" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="E493" s="12" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" ht="30" customHeight="1">
+      <c r="A494" t="s">
+        <v>417</v>
+      </c>
+      <c r="B494" t="s">
+        <v>907</v>
+      </c>
+      <c r="C494" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E494" s="12" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" ht="30" customHeight="1">
+      <c r="A495" t="s">
         <v>418</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B495" t="s">
         <v>908</v>
       </c>
-      <c r="C492" s="11" t="s">
+      <c r="C495" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="D492" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E492" s="12" t="s">
+      <c r="D495" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E495" s="12" t="s">
         <v>1521</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M492">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M495">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
@@ -14050,8 +14147,12 @@
     <hyperlink ref="N105" r:id="rId2" xr:uid="{F63DC88A-174C-43A0-8279-984CE9E97771}"/>
     <hyperlink ref="B55" r:id="rId3" xr:uid="{C3D4DC25-EB30-429A-8F6F-E4FB9AA22044}"/>
     <hyperlink ref="N55" r:id="rId4" xr:uid="{AC997898-7DB1-4D42-9A1F-D40D7628B7F2}"/>
+    <hyperlink ref="B392" r:id="rId5" xr:uid="{4AA955C6-A7DF-46E9-802E-7C77E35A44C3}"/>
+    <hyperlink ref="B384" r:id="rId6" xr:uid="{3DEBD31E-6E65-42E8-B61B-8128AD4E61C5}"/>
+    <hyperlink ref="N384" r:id="rId7" xr:uid="{1FF7671E-EF17-4F9A-BFC6-591C2F192E26}"/>
+    <hyperlink ref="B393" r:id="rId8" xr:uid="{9FAC56E3-0DA1-46E0-8FD1-BCA31E759DB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>